--- a/FairyBook/src/main/webapp/WEB-INF/quizData.xlsx
+++ b/FairyBook/src/main/webapp/WEB-INF/quizData.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>

--- a/FairyBook/src/main/webapp/WEB-INF/quizData.xlsx
+++ b/FairyBook/src/main/webapp/WEB-INF/quizData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>QUIZNUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,46 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 중 과일이 아닌 것은?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제2번입니다.~~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀찮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으아아아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄴㄴㄴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇㅇㅇㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>질문질문질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +104,36 @@
   <si>
     <t>쓴맛</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플테스트용 문제입니다.</t>
+  </si>
+  <si>
+    <t>일번선택지</t>
+  </si>
+  <si>
+    <t>두번째 테스트용 문제입니다.</t>
+  </si>
+  <si>
+    <t>일번이다</t>
+  </si>
+  <si>
+    <t>이번선택지</t>
+  </si>
+  <si>
+    <t>삼번선택지</t>
+  </si>
+  <si>
+    <t>사번선택지</t>
+  </si>
+  <si>
+    <t>이번이다</t>
+  </si>
+  <si>
+    <t>삼번이다</t>
+  </si>
+  <si>
+    <t>사번이다</t>
   </si>
 </sst>
 </file>
@@ -493,7 +487,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,7 +525,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -554,68 +548,68 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -623,22 +617,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>3</v>
